--- a/SuppXLS/Scen_ElasticDem.xlsx
+++ b/SuppXLS/Scen_ElasticDem.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_010\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B833FB84-6443-4352-B341-C7B8D267120A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B28BB-84D4-4999-8F4A-8D67797A01D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elasticity_Data" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
   <si>
     <t>Attribute</t>
   </si>
@@ -81,6 +84,24 @@
     <t>Figure 2</t>
   </si>
   <si>
+    <t>Case Demos_007</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
+  </si>
+  <si>
+    <t>Figure 4</t>
+  </si>
+  <si>
+    <t>Case Demos_007b with CO2 bounds and elastic demand</t>
+  </si>
+  <si>
+    <t>Case Demos_007a with CO2 bound</t>
+  </si>
+  <si>
+    <t>Figure 5 GDX file selection for the elastic demand run</t>
+  </si>
+  <si>
     <t>Cset_Set</t>
   </si>
   <si>
@@ -90,36 +111,36 @@
     <t>2006,2050</t>
   </si>
   <si>
+    <t>LO,UP</t>
+  </si>
+  <si>
+    <t>DTCAR,DTPUB</t>
+  </si>
+  <si>
+    <t>DRSH</t>
+  </si>
+  <si>
+    <t>DRAP,DROT</t>
+  </si>
+  <si>
+    <t>DCSH</t>
+  </si>
+  <si>
+    <t>DCAP,DCOT</t>
+  </si>
+  <si>
     <t>DAOT</t>
   </si>
   <si>
-    <t>DCSH</t>
-  </si>
-  <si>
     <t>DIDM1</t>
-  </si>
-  <si>
-    <t>DRSH</t>
-  </si>
-  <si>
-    <t>DTCAR,DTPUB</t>
-  </si>
-  <si>
-    <t>LO,UP</t>
-  </si>
-  <si>
-    <t>DRAP,DROT</t>
-  </si>
-  <si>
-    <t>DCAP,DCOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -176,10 +197,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,6 +217,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -274,26 +295,26 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,41 +322,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 4 2" xfId="7"/>
-    <cellStyle name="Normal 5" xfId="8"/>
-    <cellStyle name="Normal 8" xfId="9"/>
-    <cellStyle name="Normal 9 2" xfId="10"/>
-    <cellStyle name="Normale_B2020" xfId="11"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="13"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 5" xfId="13" xr:uid="{94A6A89F-51B7-4DB9-BFE6-BDFD2FF6CC7E}"/>
+    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 9 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normale_B2020" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,20 +371,20 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25978</xdr:rowOff>
+      <xdr:colOff>529166</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8AB9E4-2491-405F-964B-96552CD680A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CB7748-959C-4BA0-9C7B-A640896FF2D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,8 +392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5795530" y="218207"/>
-          <a:ext cx="5798126" cy="4414407"/>
+          <a:off x="5828242" y="220130"/>
+          <a:ext cx="6025091" cy="5399619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,8 +498,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Select the reference case  (generally no constraint or tax on CO2 emissions). </a:t>
-          </a:r>
+            <a:t>- Run "a reference case", generally no constraint or tax on CO2 emissions. In this example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> case Demos_007 using the Properties Gropus ElasticDemand</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
@@ -499,7 +534,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- In the Run Control Panel, select the option “Write B Price for Elast Dem (as shown</a:t>
+            <a:t>- The</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0">
@@ -511,7 +546,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> in figure 1).</a:t>
+            <a:t> Properties Groups ElasticDemand include the option "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Write B Price for Elast Dem" (as shown</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in figure 1 and Figure 2 for the case Demos_007). This option is used to save the demand prices needed for the next run with elasti demands</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -711,7 +770,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Solve the alternative scenario with CO2 constraint of tax</a:t>
+            <a:t>- Solve the alternative scenario with CO2 bound,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" baseline="0">
@@ -723,7 +782,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> (e.g. DemoS_007a)</a:t>
+            <a:t> for example DemoS_007a (Figure 3) include the two scenario ELC_CO2_BOUND and TRA_CO2_BOUND.</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
@@ -741,14 +800,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Solve the alternative scenario with CO2 and elastic demand (e.g. DemoS_007b)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
+            <a:t>- Solve the alternative scenario with CO2 bound</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100">
               <a:solidFill>
@@ -759,50 +824,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>	In the FE Case Manager, Basic Price box:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	- In the REF scenario No Elast Dem</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	- In the alternative scenario will be checked the with the B price (SEE fIGURE 2)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
+            <a:t>and elastic demand (e.g. DemoS_007b, Figure 4)</a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -813,29 +836,320 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To enable ealstic demand a GDX file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> with referrence case price (Demos_007) must be selected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        - Double click on the case name Demos_007b</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        - Click Open next to GDX References (see Figure 4 red circle)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        - Click Open and from the tab Elastic Demands select Demos_007 (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>see Figure 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) and then update,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Save and close</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" eaLnBrk="1" fontAlgn="base" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        - Run the case Demos_007b</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>277811</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43297</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7E0DB2-24CC-41D0-87AC-E4B07572401E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11938000" y="402168"/>
+          <a:ext cx="2733144" cy="4255462"/>
+          <a:chOff x="11828318" y="398319"/>
+          <a:chExt cx="2702357" cy="4251614"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6150CFAF-DF7D-4199-8CD3-6CD121B8C324}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11828318" y="398319"/>
+            <a:ext cx="2702357" cy="4251614"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Oval 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67A5C16-3E73-4E92-81E5-9DD6C28D2231}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11914909" y="4372841"/>
+            <a:ext cx="1743075" cy="268432"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595385</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>8660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>192559</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>181842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1095" name="Picture 2">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA309AD-234C-4890-AA66-ACB046E807FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358DB482-7514-49DF-9A37-62BF3644A258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,137 +1158,42 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="12763500" y="409575"/>
-          <a:ext cx="3429000" cy="4724400"/>
+          <a:off x="14848249" y="406978"/>
+          <a:ext cx="3233992" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBAEAD1-F7F8-4473-A6D1-2F53EA562E59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13706475" y="2886075"/>
-          <a:ext cx="1428750" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-IN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>377434</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>164500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1097" name="Picture 2">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3B7766-DFC7-48BB-9934-DBA40E72F4F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{716E77ED-0E02-4676-BBD7-0B35BA239866}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,49 +1202,178 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="5362575"/>
-          <a:ext cx="8086725" cy="4819650"/>
+          <a:off x="5842001" y="5408083"/>
+          <a:ext cx="7087266" cy="3180750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603251</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>392909</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9641BA90-B21C-4D8F-9F5C-B8406F007226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13155084" y="5965122"/>
+          <a:ext cx="7155658" cy="3200045"/>
+          <a:chOff x="13155084" y="5584122"/>
+          <a:chExt cx="7155658" cy="3200045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E89CFAF-BA5B-4CC4-B235-6744C879781B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13155084" y="5584122"/>
+            <a:ext cx="7155658" cy="3200045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Oval 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D07189-3274-4673-9C9F-26B855F1333F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17430750" y="8244417"/>
+            <a:ext cx="1513417" cy="349250"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>449057</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298A4DBC-AF3E-4130-9EB3-2EF369B271B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20531668" y="5566834"/>
+          <a:ext cx="3518222" cy="3206750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1353,14 +1701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J65536"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,23 +1716,27 @@
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1404,9 +1756,8 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1428,9 +1779,8 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -1445,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>6</v>
@@ -1464,25 +1814,24 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4">
         <v>2006</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>0.15</v>
       </c>
       <c r="I6" s="2"/>
@@ -1496,24 +1845,23 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>2030</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <v>0.15</v>
       </c>
       <c r="I7" s="2"/>
@@ -1527,25 +1875,24 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>2050</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="17">
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="12">
         <v>0.3</v>
       </c>
       <c r="I8" s="2"/>
@@ -1559,25 +1906,24 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
       <c r="I9" s="2"/>
@@ -1591,28 +1937,27 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1623,16 +1968,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1642,9 +1982,8 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>6</v>
@@ -1666,105 +2005,100 @@
       <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="4">
         <v>2006</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="12">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="4">
         <v>2015</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4">
         <v>-0.15</v>
       </c>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="4">
         <v>2015</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="4">
         <v>-0.05</v>
       </c>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="4">
         <v>2030</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="12">
         <v>-0.3</v>
       </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1778,63 +2112,62 @@
         <v>2030</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" s="15">
         <v>-0.05</v>
       </c>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="4">
         <v>2006</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="24">
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="12">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="4">
         <v>2015</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="12">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
@@ -1848,62 +2181,62 @@
         <v>2015</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H22" s="15">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="4">
         <v>2006</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="24">
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="12">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="4">
         <v>2015</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="F24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="12">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>9</v>
       </c>
@@ -1917,65 +2250,62 @@
         <v>2015</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H25" s="15">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="4">
         <v>2006</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="24">
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="12">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="4">
         <v>2015</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="24">
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="12">
         <v>-0.5</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
@@ -1989,62 +2319,62 @@
         <v>2015</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H28" s="15">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="4">
         <v>2006</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="24">
+      <c r="F29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="12">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="4">
         <v>2015</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="F30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="12">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
@@ -2058,62 +2388,77 @@
         <v>2015</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H31" s="15">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="J31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="4">
         <v>2006</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="24">
+      <c r="F32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="12">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="4">
         <v>2015</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="24">
+      <c r="F33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="12">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>9</v>
       </c>
@@ -2127,64 +2472,62 @@
         <v>2015</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H34" s="15">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="4">
         <v>2006</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="24">
+      <c r="F35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="12">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="4">
         <v>2015</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="24">
+      <c r="F36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="12">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>9</v>
       </c>
@@ -2198,115 +2541,62 @@
         <v>2015</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H37" s="15">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="4">
         <v>0</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24">
+      <c r="F38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="22"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="22"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="21"/>
+      <c r="H41" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
